--- a/docs/data/board.xlsx
+++ b/docs/data/board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS50520\Documents\workspace\Project\HowDo\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\HowDo\docs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B485953E-DBB1-467D-9325-8A416D92B5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2350D6EC-B12C-4835-8E48-431728ED9D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C7A8BF21-16F3-47C2-B878-5C71FD453163}"/>
+    <workbookView xWindow="15" yWindow="2970" windowWidth="27855" windowHeight="13200" xr2:uid="{C7A8BF21-16F3-47C2-B878-5C71FD453163}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>level</t>
+    <t>b_level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +591,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,14 +602,15 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
@@ -623,16 +624,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -645,13 +646,16 @@
       <c r="C2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -665,13 +669,16 @@
       <c r="C3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>21</v>
       </c>
     </row>
@@ -685,13 +692,16 @@
       <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -705,13 +715,16 @@
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -725,13 +738,16 @@
       <c r="C6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -745,13 +761,16 @@
       <c r="C7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -765,13 +784,16 @@
       <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -785,13 +807,16 @@
       <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -805,13 +830,16 @@
       <c r="C10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -825,13 +853,16 @@
       <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>25</v>
       </c>
     </row>
